--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3125,6 +3125,98 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Dacia Buiucani</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Balti</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-csf-balti/6FhkI7dM/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3217,6 +3217,98 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Milsami</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Zimbru Chisinau</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>06/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>06/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>06/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/milsami-zimbru-chisinau/lvrfHRBS/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dacia Buiucani</t>
+          <t>Sheriff Tiraspol</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Floresti</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Milsami</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.14</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>16/09/2023 15:08</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6.79</v>
+        <v>1.02</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:08</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.96</v>
+        <v>21.49</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>16/09/2023 15:08</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.91</v>
+        <v>21.58</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.04</v>
+        <v>27.16</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>16/09/2023 15:08</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.32</v>
+        <v>27.88</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-milsami/6FnkBGwP/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sheriff-tiraspol-floresti/fuqoCdOI/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sheriff Tiraspol</t>
+          <t>Dacia Buiucani</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Floresti</t>
+          <t>Milsami</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>3.14</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:08</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.02</v>
+        <v>6.79</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:08</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>21.49</v>
+        <v>2.96</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:08</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>21.58</v>
+        <v>3.91</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>27.16</v>
+        <v>2.04</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:08</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>27.88</v>
+        <v>1.32</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/sheriff-tiraspol-floresti/fuqoCdOI/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-milsami/6FnkBGwP/</t>
         </is>
       </c>
     </row>
@@ -3306,6 +3306,98 @@
       <c r="V31" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/moldova/super-liga/milsami-zimbru-chisinau/lvrfHRBS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sparta Selemet</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Floresti</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sparta-selemet-floresti/SOgoJmsG/</t>
         </is>
       </c>
     </row>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3401,6 +3401,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45207.70833333334</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sheriff Tiraspol</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Petrocub</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sheriff-tiraspol-petrocub-hincesti/OWYLCoKq/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sheriff Tiraspol</t>
+          <t>Dacia Buiucani</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Floresti</t>
+          <t>Milsami</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>3.14</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>16/09/2023 15:08</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.02</v>
+        <v>6.79</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>16/09/2023 15:08</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>21.49</v>
+        <v>2.96</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>16/09/2023 15:08</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>21.58</v>
+        <v>3.91</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>27.16</v>
+        <v>2.04</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>16/09/2023 15:08</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>27.88</v>
+        <v>1.32</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/sheriff-tiraspol-floresti/fuqoCdOI/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-milsami/6FnkBGwP/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dacia Buiucani</t>
+          <t>Sheriff Tiraspol</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Floresti</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Milsami</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
       <c r="J19" t="n">
-        <v>3.14</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>16/09/2023 15:08</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6.79</v>
+        <v>1.02</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:08</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.96</v>
+        <v>21.49</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>16/09/2023 15:08</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.91</v>
+        <v>21.58</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.04</v>
+        <v>27.16</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>16/09/2023 15:08</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.32</v>
+        <v>27.88</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-milsami/6FnkBGwP/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sheriff-tiraspol-floresti/fuqoCdOI/</t>
         </is>
       </c>
     </row>
@@ -3490,6 +3490,282 @@
       <c r="V33" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/moldova/super-liga/sheriff-tiraspol-petrocub-hincesti/OWYLCoKq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sheriff Tiraspol</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Sparta Selemet</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>20/10/2023 04:02</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>20/10/2023 04:02</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>20/10/2023 04:02</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>20/10/2023 04:02</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>20/10/2023 04:02</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>20/10/2023 04:02</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sheriff-tiraspol-sparta-selemet/dpXTAPld/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Zimbru Chisinau</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Floresti</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/zimbru-chisinau-floresti/IgYPB5Zk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Balti</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Milsami</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>20/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>20/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>20/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/csf-balti-milsami/Y1GCZ8Rd/</t>
         </is>
       </c>
     </row>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3769,6 +3769,98 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45221.66666666666</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Petrocub</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Dacia Buiucani</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>21/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>21/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>21/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/petrocub-hincesti-dacia-buiucani/ChFGYSt3/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dacia Buiucani</t>
+          <t>Sheriff Tiraspol</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Floresti</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Milsami</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.14</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>16/09/2023 15:08</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6.79</v>
+        <v>1.02</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:08</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.96</v>
+        <v>21.49</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>16/09/2023 15:08</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.91</v>
+        <v>21.58</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.04</v>
+        <v>27.16</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>16/09/2023 15:08</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.32</v>
+        <v>27.88</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-milsami/6FnkBGwP/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sheriff-tiraspol-floresti/fuqoCdOI/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sheriff Tiraspol</t>
+          <t>Dacia Buiucani</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Floresti</t>
+          <t>Milsami</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>3.14</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:08</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.02</v>
+        <v>6.79</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:08</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>21.49</v>
+        <v>2.96</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:08</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>21.58</v>
+        <v>3.91</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>27.16</v>
+        <v>2.04</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:08</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>27.88</v>
+        <v>1.32</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/sheriff-tiraspol-floresti/fuqoCdOI/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-milsami/6FnkBGwP/</t>
         </is>
       </c>
     </row>
@@ -3858,6 +3858,374 @@
       <c r="V37" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/moldova/super-liga/petrocub-hincesti-dacia-buiucani/ChFGYSt3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45227.54166666666</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sparta Selemet</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Zimbru Chisinau</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sparta-selemet-zimbru-chisinau/2s8TVQQL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Milsami</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Petrocub</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>27/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>27/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>27/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/milsami-petrocub-hincesti/6FEKXnd9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Dacia Buiucani</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Sheriff Tiraspol</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>11</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:48</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-sheriff-tiraspol/KIIOW6BF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Floresti</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Balti</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/floresti-csf-balti/tY6XUptS/</t>
         </is>
       </c>
     </row>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4229,6 +4229,190 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Dacia Buiucani</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Sparta Selemet</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:40</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:49</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:49</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-sparta-selemet/nZoCN2Y1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Petrocub</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>6</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Floresti</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>03/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>03/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>03/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/petrocub-hincesti-floresti/j7h3PO3k/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sparta Selemet</t>
+          <t>Dacia Buiucani</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sheriff Tiraspol</t>
+          <t>Petrocub</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>5.96</v>
+        <v>4.26</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>20.2</v>
+        <v>13.05</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:06</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.59</v>
+        <v>3.14</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>22.78</v>
+        <v>3.61</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:07</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:03</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/sparta-selemet-sheriff-tiraspol/lISUxqRf/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-petrocub-hincesti/bPXn31ul/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dacia Buiucani</t>
+          <t>Sparta Selemet</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,63 +1225,63 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Petrocub</t>
+          <t>Sheriff Tiraspol</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.26</v>
+        <v>5.96</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>13.05</v>
+        <v>20.2</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:06</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.14</v>
+        <v>4.59</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.61</v>
+        <v>22.78</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:07</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:03</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-petrocub-hincesti/bPXn31ul/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sparta-selemet-sheriff-tiraspol/lISUxqRf/</t>
         </is>
       </c>
     </row>
@@ -4410,6 +4410,98 @@
       <c r="V43" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/moldova/super-liga/petrocub-hincesti-floresti/j7h3PO3k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Balti</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Zimbru Chisinau</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:31</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:31</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:31</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/csf-balti-zimbru-chisinau/CGgaQ4lq/</t>
         </is>
       </c>
     </row>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4505,6 +4505,98 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sheriff Tiraspol</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Milsami</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:17</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sheriff-tiraspol-milsami/YVs8OrJe/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dacia Buiucani</t>
+          <t>Sparta Selemet</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Petrocub</t>
+          <t>Sheriff Tiraspol</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>4.26</v>
+        <v>5.96</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>13.05</v>
+        <v>20.2</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:06</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.14</v>
+        <v>4.59</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.61</v>
+        <v>22.78</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:07</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:03</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-petrocub-hincesti/bPXn31ul/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sparta-selemet-sheriff-tiraspol/lISUxqRf/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sparta Selemet</t>
+          <t>Dacia Buiucani</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,63 +1225,63 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sheriff Tiraspol</t>
+          <t>Petrocub</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>5.96</v>
+        <v>4.26</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>20.2</v>
+        <v>13.05</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:06</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.59</v>
+        <v>3.14</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>22.78</v>
+        <v>3.61</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:07</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:03</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/sparta-selemet-sheriff-tiraspol/lISUxqRf/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-petrocub-hincesti/bPXn31ul/</t>
         </is>
       </c>
     </row>
@@ -4594,6 +4594,98 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/moldova/super-liga/sheriff-tiraspol-milsami/YVs8OrJe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45240.70833333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Zimbru Chisinau</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Petrocub</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/zimbru-chisinau-petrocub-hincesti/zeS6qpeL/</t>
         </is>
       </c>
     </row>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4689,6 +4689,98 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45241.5</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sparta Selemet</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Balti</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sparta-selemet-csf-balti/0xzfnnB2/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4781,6 +4781,98 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Milsami</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Dacia Buiucani</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/milsami-dacia-buiucani/vTYco6Q8/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dacia Buiucani</t>
+          <t>Floresti</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sheriff Tiraspol</t>
+          <t>Balti</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>11</v>
+        <v>2.76</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>16.58</v>
+        <v>3.09</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>7.22</v>
+        <v>3.02</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>7.93</v>
+        <v>3.81</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>29/10/2023 12:48</t>
+          <t>29/10/2023 12:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.1</v>
+        <v>1.93</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-sheriff-tiraspol/KIIOW6BF/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/floresti-csf-balti/tY6XUptS/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Floresti</t>
+          <t>Dacia Buiucani</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Balti</t>
+          <t>Sheriff Tiraspol</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>2.76</v>
+        <v>11</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.09</v>
+        <v>16.58</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>29/10/2023 12:58</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.02</v>
+        <v>7.22</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.81</v>
+        <v>7.93</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>29/10/2023 12:58</t>
+          <t>29/10/2023 12:48</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.93</v>
+        <v>1.1</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>29/10/2023 12:58</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/floresti-csf-balti/tY6XUptS/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-sheriff-tiraspol/KIIOW6BF/</t>
         </is>
       </c>
     </row>
@@ -4870,6 +4870,98 @@
       <c r="V48" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/moldova/super-liga/milsami-dacia-buiucani/vTYco6Q8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45242.5</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Floresti</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sheriff Tiraspol</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:05</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:05</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:05</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:05</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>12/11/2023 10:58</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>12/11/2023 10:58</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/floresti-sheriff-tiraspol/d4T2pQuF/</t>
         </is>
       </c>
     </row>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Floresti</t>
+          <t>Dacia Buiucani</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Balti</t>
+          <t>Sheriff Tiraspol</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.76</v>
+        <v>11</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.09</v>
+        <v>16.58</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>29/10/2023 12:58</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.02</v>
+        <v>7.22</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.81</v>
+        <v>7.93</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>29/10/2023 12:58</t>
+          <t>29/10/2023 12:48</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.93</v>
+        <v>1.1</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>29/10/2023 12:58</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/floresti-csf-balti/tY6XUptS/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-sheriff-tiraspol/KIIOW6BF/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dacia Buiucani</t>
+          <t>Floresti</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sheriff Tiraspol</t>
+          <t>Balti</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>11</v>
+        <v>2.76</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>16.58</v>
+        <v>3.09</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>7.22</v>
+        <v>3.02</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>7.93</v>
+        <v>3.81</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>29/10/2023 12:48</t>
+          <t>29/10/2023 12:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.1</v>
+        <v>1.93</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-sheriff-tiraspol/KIIOW6BF/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/floresti-csf-balti/tY6XUptS/</t>
         </is>
       </c>
     </row>
@@ -4962,6 +4962,282 @@
       <c r="V49" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/moldova/super-liga/floresti-sheriff-tiraspol/d4T2pQuF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Milsami</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sparta Selemet</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/milsami-sparta-selemet/YqNtwrYl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sheriff Tiraspol</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Zimbru Chisinau</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sheriff-tiraspol-zimbru-chisinau/jLXyvOIr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Petrocub</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Balti</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:47</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:54</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/petrocub-hincesti-csf-balti/CzMpx2me/</t>
         </is>
       </c>
     </row>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dacia Buiucani</t>
+          <t>Floresti</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sheriff Tiraspol</t>
+          <t>Balti</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>11</v>
+        <v>2.76</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>16.58</v>
+        <v>3.09</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>7.22</v>
+        <v>3.02</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>7.93</v>
+        <v>3.81</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>29/10/2023 12:48</t>
+          <t>29/10/2023 12:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.1</v>
+        <v>1.93</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-sheriff-tiraspol/KIIOW6BF/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/floresti-csf-balti/tY6XUptS/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Floresti</t>
+          <t>Dacia Buiucani</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Balti</t>
+          <t>Sheriff Tiraspol</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>2.76</v>
+        <v>11</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.09</v>
+        <v>16.58</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>29/10/2023 12:58</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.02</v>
+        <v>7.22</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.81</v>
+        <v>7.93</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>29/10/2023 12:58</t>
+          <t>29/10/2023 12:48</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.93</v>
+        <v>1.1</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>29/10/2023 12:58</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/floresti-csf-balti/tY6XUptS/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-sheriff-tiraspol/KIIOW6BF/</t>
         </is>
       </c>
     </row>
@@ -5238,6 +5238,98 @@
       <c r="V52" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/moldova/super-liga/petrocub-hincesti-csf-balti/CzMpx2me/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45257.5</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Dacia Buiucani</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Floresti</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>27/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>27/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>27/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-floresti/UHRAr4AR/</t>
         </is>
       </c>
     </row>

--- a/2023/moldova_super-liga_2023-2024.xlsx
+++ b/2023/moldova_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Floresti</t>
+          <t>Dacia Buiucani</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Balti</t>
+          <t>Sheriff Tiraspol</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.76</v>
+        <v>11</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.09</v>
+        <v>16.58</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>29/10/2023 12:58</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.02</v>
+        <v>7.22</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.81</v>
+        <v>7.93</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>29/10/2023 12:58</t>
+          <t>29/10/2023 12:48</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.93</v>
+        <v>1.1</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>29/10/2023 12:58</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/floresti-csf-balti/tY6XUptS/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-sheriff-tiraspol/KIIOW6BF/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dacia Buiucani</t>
+          <t>Floresti</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sheriff Tiraspol</t>
+          <t>Balti</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>11</v>
+        <v>2.76</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>16.58</v>
+        <v>3.09</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>7.22</v>
+        <v>3.02</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>7.93</v>
+        <v>3.81</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>29/10/2023 12:48</t>
+          <t>29/10/2023 12:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.1</v>
+        <v>1.93</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-sheriff-tiraspol/KIIOW6BF/</t>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/floresti-csf-balti/tY6XUptS/</t>
         </is>
       </c>
     </row>
@@ -5330,6 +5330,374 @@
       <c r="V53" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/moldova/super-liga/dacia-buiucani-floresti/UHRAr4AR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Floresti</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Milsami</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:41</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:41</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:41</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/floresti-milsami/M53yaPf8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sparta Selemet</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Petrocub</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/sparta-selemet-petrocub-hincesti/tAQlyM21/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Balti</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Sheriff Tiraspol</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/csf-balti-sheriff-tiraspol/z97ubqAE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>moldova</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Zimbru Chisinau</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Dacia Buiucani</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:46</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:46</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:46</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/moldova/super-liga/zimbru-chisinau-dacia-buiucani/K0PhztI7/</t>
         </is>
       </c>
     </row>
